--- a/data/pca/factorExposure/factorExposure_2011-04-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-04-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.006989009482356346</v>
+        <v>0.0134042046562339</v>
       </c>
       <c r="C2">
-        <v>-0.0007365813651960127</v>
+        <v>-0.001251686504741562</v>
       </c>
       <c r="D2">
-        <v>-0.0500929305587209</v>
+        <v>0.002909555762713894</v>
       </c>
       <c r="E2">
-        <v>0.0007205808205569755</v>
+        <v>0.03636417963014809</v>
       </c>
       <c r="F2">
-        <v>0.01428496067744213</v>
+        <v>0.002068482493465032</v>
       </c>
       <c r="G2">
-        <v>-0.007453140681988851</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.001768968010027782</v>
+      </c>
+      <c r="H2">
+        <v>-0.004425483849359283</v>
+      </c>
+      <c r="I2">
+        <v>0.05337942283433874</v>
+      </c>
+      <c r="J2">
+        <v>-0.05802150208678482</v>
+      </c>
+      <c r="K2">
+        <v>-0.02021018201884263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.102610681201079</v>
+        <v>0.113346130293269</v>
       </c>
       <c r="C4">
-        <v>-0.03294582671427025</v>
+        <v>-0.0629733799547009</v>
       </c>
       <c r="D4">
-        <v>-0.04703816384285668</v>
+        <v>-0.002542877863603169</v>
       </c>
       <c r="E4">
-        <v>-0.06386550890870611</v>
+        <v>0.02983371061559463</v>
       </c>
       <c r="F4">
-        <v>0.03226921161273848</v>
+        <v>0.006471542076710606</v>
       </c>
       <c r="G4">
-        <v>-0.02887826755247943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.1213492527275596</v>
+      </c>
+      <c r="H4">
+        <v>0.09728659206998432</v>
+      </c>
+      <c r="I4">
+        <v>0.01740759528650695</v>
+      </c>
+      <c r="J4">
+        <v>0.04361201154016055</v>
+      </c>
+      <c r="K4">
+        <v>0.02797033502611329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1294723140487142</v>
+        <v>0.1263636327693753</v>
       </c>
       <c r="C6">
-        <v>-0.02521994590976</v>
+        <v>-0.0325440108203169</v>
       </c>
       <c r="D6">
-        <v>-0.03947670782696647</v>
+        <v>-0.01083102214087821</v>
       </c>
       <c r="E6">
-        <v>0.01340986518784304</v>
+        <v>-0.006329751095010478</v>
       </c>
       <c r="F6">
-        <v>-0.1409812486084136</v>
+        <v>0.02094916474103612</v>
       </c>
       <c r="G6">
-        <v>0.1022686291563665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.04881375815880484</v>
+      </c>
+      <c r="H6">
+        <v>0.08280207187629712</v>
+      </c>
+      <c r="I6">
+        <v>-0.1936877309269259</v>
+      </c>
+      <c r="J6">
+        <v>0.3609680375772522</v>
+      </c>
+      <c r="K6">
+        <v>-0.1694145093752186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.09060170160836807</v>
+        <v>0.07544461443572809</v>
       </c>
       <c r="C7">
-        <v>-0.04650178917880069</v>
+        <v>-0.06676051395722062</v>
       </c>
       <c r="D7">
-        <v>-0.0431044152481701</v>
+        <v>-0.02756864159350846</v>
       </c>
       <c r="E7">
-        <v>-0.02958506349245311</v>
+        <v>0.05546670903254148</v>
       </c>
       <c r="F7">
-        <v>-0.02435943596146392</v>
+        <v>0.007319958730142559</v>
       </c>
       <c r="G7">
-        <v>-0.03465151393053852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.03454420046660929</v>
+      </c>
+      <c r="H7">
+        <v>0.02451191129874549</v>
+      </c>
+      <c r="I7">
+        <v>-0.02062449340117672</v>
+      </c>
+      <c r="J7">
+        <v>-0.02354183433464743</v>
+      </c>
+      <c r="K7">
+        <v>0.09862618893794174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04412620905816954</v>
+        <v>0.05311289617688583</v>
       </c>
       <c r="C8">
-        <v>0.01893817142803247</v>
+        <v>-0.01572980131746571</v>
       </c>
       <c r="D8">
-        <v>-0.08717259255150744</v>
+        <v>-0.01314060519134854</v>
       </c>
       <c r="E8">
-        <v>-0.08108207423314219</v>
+        <v>0.0200325104482258</v>
       </c>
       <c r="F8">
-        <v>0.02698240017317793</v>
+        <v>-0.004628413141310373</v>
       </c>
       <c r="G8">
-        <v>-0.1212476440512687</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.1407820981345513</v>
+      </c>
+      <c r="H8">
+        <v>0.06429381553890989</v>
+      </c>
+      <c r="I8">
+        <v>0.02227369263405819</v>
+      </c>
+      <c r="J8">
+        <v>0.03287061230435666</v>
+      </c>
+      <c r="K8">
+        <v>0.02741337626322061</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.09199741571836031</v>
+        <v>0.08546566020870799</v>
       </c>
       <c r="C9">
-        <v>-0.04129127520910012</v>
+        <v>-0.0543011753813977</v>
       </c>
       <c r="D9">
-        <v>-0.0384520556329106</v>
+        <v>-0.007715383131773179</v>
       </c>
       <c r="E9">
-        <v>-0.04509386792861977</v>
+        <v>0.02534641438038207</v>
       </c>
       <c r="F9">
-        <v>0.0176540851669887</v>
+        <v>-0.009398916309024322</v>
       </c>
       <c r="G9">
-        <v>-0.06768573222058548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.1046279110292906</v>
+      </c>
+      <c r="H9">
+        <v>0.08910580766849345</v>
+      </c>
+      <c r="I9">
+        <v>-0.00454538249846875</v>
+      </c>
+      <c r="J9">
+        <v>0.01265377109145876</v>
+      </c>
+      <c r="K9">
+        <v>-0.004414739912012086</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.0378906891268521</v>
+        <v>0.09655026212378141</v>
       </c>
       <c r="C10">
-        <v>0.1551233048244343</v>
+        <v>0.1642426875308501</v>
       </c>
       <c r="D10">
-        <v>-0.09101834247203536</v>
+        <v>0.04428698034262221</v>
       </c>
       <c r="E10">
-        <v>-0.02680000465185132</v>
+        <v>0.04343815637154847</v>
       </c>
       <c r="F10">
-        <v>-0.04032903464658951</v>
+        <v>0.03463036545094016</v>
       </c>
       <c r="G10">
-        <v>-0.01645953619051658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0002848649394652673</v>
+      </c>
+      <c r="H10">
+        <v>-0.009836744741504068</v>
+      </c>
+      <c r="I10">
+        <v>-0.03544846488680852</v>
+      </c>
+      <c r="J10">
+        <v>0.02911842891846872</v>
+      </c>
+      <c r="K10">
+        <v>0.0554011892992422</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.0761511376327941</v>
+        <v>0.07648846975026077</v>
       </c>
       <c r="C11">
-        <v>-0.06276600702791636</v>
+        <v>-0.06629151947974023</v>
       </c>
       <c r="D11">
-        <v>-0.006341720794834903</v>
+        <v>-0.03187931773657606</v>
       </c>
       <c r="E11">
-        <v>-0.0005574510226661332</v>
+        <v>0.02070189509844682</v>
       </c>
       <c r="F11">
-        <v>0.02153429752872371</v>
+        <v>-0.04008115147703221</v>
       </c>
       <c r="G11">
-        <v>-0.1427761645611693</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.1134853316358772</v>
+      </c>
+      <c r="H11">
+        <v>0.06469985553701481</v>
+      </c>
+      <c r="I11">
+        <v>0.008440672047088444</v>
+      </c>
+      <c r="J11">
+        <v>-0.1126341838826285</v>
+      </c>
+      <c r="K11">
+        <v>-0.03725448932675172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07173404761539208</v>
+        <v>0.07210977678394423</v>
       </c>
       <c r="C12">
-        <v>-0.04115004281388705</v>
+        <v>-0.05642667760454464</v>
       </c>
       <c r="D12">
-        <v>0.0007899011481023083</v>
+        <v>-0.03431145691994873</v>
       </c>
       <c r="E12">
-        <v>-0.03680749251590739</v>
+        <v>0.02740681525385392</v>
       </c>
       <c r="F12">
-        <v>0.003853138508168696</v>
+        <v>-0.04912643582903194</v>
       </c>
       <c r="G12">
-        <v>-0.1356329085532664</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.1348078172977402</v>
+      </c>
+      <c r="H12">
+        <v>0.05177845047799522</v>
+      </c>
+      <c r="I12">
+        <v>-0.01336565557580629</v>
+      </c>
+      <c r="J12">
+        <v>-0.09873018342759764</v>
+      </c>
+      <c r="K12">
+        <v>-0.02277758672428664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.06451709027372617</v>
+        <v>0.0416026182823771</v>
       </c>
       <c r="C13">
-        <v>-0.005227702984979079</v>
+        <v>-0.02630503875955361</v>
       </c>
       <c r="D13">
-        <v>-0.01153161582016404</v>
+        <v>-0.01488517288310935</v>
       </c>
       <c r="E13">
-        <v>-0.03153064108361304</v>
+        <v>0.01591809798644739</v>
       </c>
       <c r="F13">
-        <v>0.04378597581451386</v>
+        <v>0.009935478674974506</v>
       </c>
       <c r="G13">
-        <v>-0.06670454101233909</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05413941639518714</v>
+      </c>
+      <c r="H13">
+        <v>0.02944045688266281</v>
+      </c>
+      <c r="I13">
+        <v>-0.03065971207535651</v>
+      </c>
+      <c r="J13">
+        <v>0.0349248928245329</v>
+      </c>
+      <c r="K13">
+        <v>0.04501470990406377</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.05327416708770858</v>
+        <v>0.04452908315508965</v>
       </c>
       <c r="C14">
-        <v>-0.005191456074024023</v>
+        <v>-0.02241444287963718</v>
       </c>
       <c r="D14">
-        <v>-0.03473847202159863</v>
+        <v>-0.0003274031926010004</v>
       </c>
       <c r="E14">
-        <v>-0.02597022614924588</v>
+        <v>0.01003010777083427</v>
       </c>
       <c r="F14">
-        <v>0.003494084160604537</v>
+        <v>-0.01920592228686014</v>
       </c>
       <c r="G14">
-        <v>-0.06993095731257565</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.06043889570096805</v>
+      </c>
+      <c r="H14">
+        <v>0.02232759013240902</v>
+      </c>
+      <c r="I14">
+        <v>0.01623283608434305</v>
+      </c>
+      <c r="J14">
+        <v>0.04526097669976797</v>
+      </c>
+      <c r="K14">
+        <v>0.03268383027613779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.0362287606107231</v>
+        <v>0.02351976413015834</v>
       </c>
       <c r="C15">
-        <v>0.01034893954277937</v>
+        <v>-0.008744449021039317</v>
       </c>
       <c r="D15">
-        <v>-0.01076621452219948</v>
+        <v>-0.003774406381748995</v>
       </c>
       <c r="E15">
-        <v>-0.009198454441495614</v>
+        <v>0.0007261425825550412</v>
       </c>
       <c r="F15">
-        <v>0.01156036700293628</v>
+        <v>0.03869258704750655</v>
       </c>
       <c r="G15">
-        <v>-0.03498156774394957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.02126376269202757</v>
+      </c>
+      <c r="H15">
+        <v>0.01754249668381624</v>
+      </c>
+      <c r="I15">
+        <v>-0.01878132670591483</v>
+      </c>
+      <c r="J15">
+        <v>0.05151150895714065</v>
+      </c>
+      <c r="K15">
+        <v>0.042916130264827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.07933878813599501</v>
+        <v>0.08086666721053852</v>
       </c>
       <c r="C16">
-        <v>-0.07147731856496313</v>
+        <v>-0.06704514146577396</v>
       </c>
       <c r="D16">
-        <v>-0.01476561876945409</v>
+        <v>-0.04503239216873933</v>
       </c>
       <c r="E16">
-        <v>-0.03833103682024436</v>
+        <v>0.02614769388253179</v>
       </c>
       <c r="F16">
-        <v>0.0391524447021487</v>
+        <v>-0.04149559567253316</v>
       </c>
       <c r="G16">
-        <v>-0.1068371122679237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.1287998956915772</v>
+      </c>
+      <c r="H16">
+        <v>0.04901772572404262</v>
+      </c>
+      <c r="I16">
+        <v>0.008654684665445571</v>
+      </c>
+      <c r="J16">
+        <v>-0.1174857277967089</v>
+      </c>
+      <c r="K16">
+        <v>-0.01591432003635258</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.05074941701614357</v>
+        <v>0.05039479010463965</v>
       </c>
       <c r="C20">
-        <v>-0.01988825768585482</v>
+        <v>-0.03879277557759014</v>
       </c>
       <c r="D20">
-        <v>-0.01735812579531658</v>
+        <v>0.01372619581035704</v>
       </c>
       <c r="E20">
-        <v>-0.02616776048052661</v>
+        <v>0.0143351026226167</v>
       </c>
       <c r="F20">
-        <v>0.01295961521995756</v>
+        <v>0.007152819101074409</v>
       </c>
       <c r="G20">
-        <v>-0.1034956958154241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.07767215229217807</v>
+      </c>
+      <c r="H20">
+        <v>0.01692546649859008</v>
+      </c>
+      <c r="I20">
+        <v>-0.008601342240592098</v>
+      </c>
+      <c r="J20">
+        <v>0.02002821853357209</v>
+      </c>
+      <c r="K20">
+        <v>0.06175164394592855</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.02666277291841469</v>
+        <v>0.02833274897264284</v>
       </c>
       <c r="C21">
-        <v>-0.0352523054036031</v>
+        <v>-0.02229029582848409</v>
       </c>
       <c r="D21">
-        <v>0.0008962523898948151</v>
+        <v>0.02787321825029221</v>
       </c>
       <c r="E21">
-        <v>-0.0129860352325306</v>
+        <v>-0.01472360090189555</v>
       </c>
       <c r="F21">
-        <v>-0.08908599255240772</v>
+        <v>-0.008620317397153901</v>
       </c>
       <c r="G21">
-        <v>0.05009192073379508</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.06835903482251704</v>
+      </c>
+      <c r="H21">
+        <v>0.04500154125789008</v>
+      </c>
+      <c r="I21">
+        <v>-0.08794676915824168</v>
+      </c>
+      <c r="J21">
+        <v>0.01966321928879991</v>
+      </c>
+      <c r="K21">
+        <v>0.105568544151324</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.0447629165010766</v>
+        <v>0.04101680520041052</v>
       </c>
       <c r="C22">
-        <v>0.00214702943973501</v>
+        <v>-0.02336791458732904</v>
       </c>
       <c r="D22">
-        <v>0.003881007765837298</v>
+        <v>-0.109755581545889</v>
       </c>
       <c r="E22">
-        <v>-0.5544311374771851</v>
+        <v>0.06094271049645184</v>
       </c>
       <c r="F22">
-        <v>0.0862783624659698</v>
+        <v>0.6349364707398252</v>
       </c>
       <c r="G22">
-        <v>0.3258509790623326</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>0.07824494735452668</v>
+      </c>
+      <c r="H22">
+        <v>-0.1777666577546309</v>
+      </c>
+      <c r="I22">
+        <v>-0.02678189099957378</v>
+      </c>
+      <c r="J22">
+        <v>-0.07885258657340766</v>
+      </c>
+      <c r="K22">
+        <v>-0.05194234385557826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.04476845185052421</v>
+        <v>0.04139035880111445</v>
       </c>
       <c r="C23">
-        <v>0.001559171281408332</v>
+        <v>-0.02393102691176238</v>
       </c>
       <c r="D23">
-        <v>0.00274164768430082</v>
+        <v>-0.11110631084852</v>
       </c>
       <c r="E23">
-        <v>-0.5541118616429453</v>
+        <v>0.06162069310073943</v>
       </c>
       <c r="F23">
-        <v>0.0870402885978117</v>
+        <v>0.6364148220658288</v>
       </c>
       <c r="G23">
-        <v>0.327335583858776</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.08011210104742666</v>
+      </c>
+      <c r="H23">
+        <v>-0.1764278316619548</v>
+      </c>
+      <c r="I23">
+        <v>-0.02542340348356972</v>
+      </c>
+      <c r="J23">
+        <v>-0.07614343732341126</v>
+      </c>
+      <c r="K23">
+        <v>-0.05485623842727493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08644836146952688</v>
+        <v>0.08380217104294582</v>
       </c>
       <c r="C24">
-        <v>-0.04798800179221242</v>
+        <v>-0.0611349736544845</v>
       </c>
       <c r="D24">
-        <v>-0.0200069592328459</v>
+        <v>-0.02069729678777957</v>
       </c>
       <c r="E24">
-        <v>-0.04124823778061957</v>
+        <v>0.01722554514582589</v>
       </c>
       <c r="F24">
-        <v>0.01137240616620723</v>
+        <v>-0.03336015499627131</v>
       </c>
       <c r="G24">
-        <v>-0.1083690692962156</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.125873977244123</v>
+      </c>
+      <c r="H24">
+        <v>0.05021212130203115</v>
+      </c>
+      <c r="I24">
+        <v>0.003913184211943018</v>
+      </c>
+      <c r="J24">
+        <v>-0.1187554419290357</v>
+      </c>
+      <c r="K24">
+        <v>-0.04748781161292573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.07579083794565382</v>
+        <v>0.08346139574641467</v>
       </c>
       <c r="C25">
-        <v>-0.02071906938757273</v>
+        <v>-0.04409375795312709</v>
       </c>
       <c r="D25">
-        <v>-0.0249971677747275</v>
+        <v>-0.0242279801646972</v>
       </c>
       <c r="E25">
-        <v>-0.02897737635263805</v>
+        <v>0.02950838251808395</v>
       </c>
       <c r="F25">
-        <v>0.004211176153003511</v>
+        <v>-0.05404890581177339</v>
       </c>
       <c r="G25">
-        <v>-0.1045284806324313</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.1314572082793554</v>
+      </c>
+      <c r="H25">
+        <v>0.03918328643456422</v>
+      </c>
+      <c r="I25">
+        <v>0.01143732234976493</v>
+      </c>
+      <c r="J25">
+        <v>-0.09485218256843034</v>
+      </c>
+      <c r="K25">
+        <v>-0.02748223201845858</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.0499411490197062</v>
+        <v>0.04439692914676822</v>
       </c>
       <c r="C26">
-        <v>-0.02458572754372068</v>
+        <v>-0.01054752697365373</v>
       </c>
       <c r="D26">
-        <v>-0.032484482945667</v>
+        <v>0.01031939814043011</v>
       </c>
       <c r="E26">
-        <v>-0.01590033901322479</v>
+        <v>-0.007861370676306632</v>
       </c>
       <c r="F26">
-        <v>0.02556399245462972</v>
+        <v>0.01022529301823861</v>
       </c>
       <c r="G26">
-        <v>-0.06122840010193681</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.06017193072986336</v>
+      </c>
+      <c r="H26">
+        <v>0.001538153646122057</v>
+      </c>
+      <c r="I26">
+        <v>0.001219424970823137</v>
+      </c>
+      <c r="J26">
+        <v>0.02974842008584304</v>
+      </c>
+      <c r="K26">
+        <v>0.01703498489264928</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.06245417534474491</v>
+        <v>0.121051665524789</v>
       </c>
       <c r="C28">
-        <v>0.2927422091369581</v>
+        <v>0.3026927426438549</v>
       </c>
       <c r="D28">
-        <v>-0.06468898589521745</v>
+        <v>0.001482294588465123</v>
       </c>
       <c r="E28">
-        <v>0.03571051846743339</v>
+        <v>0.005321236037581742</v>
       </c>
       <c r="F28">
-        <v>-0.04725953611985366</v>
+        <v>-0.003267314628225792</v>
       </c>
       <c r="G28">
-        <v>0.02012019549848037</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0122434145086747</v>
+      </c>
+      <c r="H28">
+        <v>0.01395676269286429</v>
+      </c>
+      <c r="I28">
+        <v>-0.01376931745079082</v>
+      </c>
+      <c r="J28">
+        <v>-0.005505618142709463</v>
+      </c>
+      <c r="K28">
+        <v>0.01909791024051652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05688991876445656</v>
+        <v>0.04155339812261435</v>
       </c>
       <c r="C29">
-        <v>-0.00789994710144392</v>
+        <v>-0.0198126973737589</v>
       </c>
       <c r="D29">
-        <v>-0.0278838860180778</v>
+        <v>-0.01202053152168146</v>
       </c>
       <c r="E29">
-        <v>-0.04512190805774981</v>
+        <v>0.03395612588768931</v>
       </c>
       <c r="F29">
-        <v>0.03581962395048558</v>
+        <v>-0.01820793067341259</v>
       </c>
       <c r="G29">
-        <v>-0.04881638435927645</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1016533507302951</v>
+      </c>
+      <c r="H29">
+        <v>-0.01191086813326614</v>
+      </c>
+      <c r="I29">
+        <v>-0.006330163839584416</v>
+      </c>
+      <c r="J29">
+        <v>0.0405646735227941</v>
+      </c>
+      <c r="K29">
+        <v>0.05064840334919156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1175158531416528</v>
+        <v>0.10538645022492</v>
       </c>
       <c r="C30">
-        <v>0.01616738995750147</v>
+        <v>-0.04721784742199901</v>
       </c>
       <c r="D30">
-        <v>-0.07526594930164587</v>
+        <v>-0.0563634535556062</v>
       </c>
       <c r="E30">
-        <v>-0.2021878139001507</v>
+        <v>-0.002004399943017833</v>
       </c>
       <c r="F30">
-        <v>-0.04562709760062249</v>
+        <v>-0.02840175645476404</v>
       </c>
       <c r="G30">
-        <v>-0.1347334238308977</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.2158284804913976</v>
+      </c>
+      <c r="H30">
+        <v>0.04182489646961913</v>
+      </c>
+      <c r="I30">
+        <v>-0.1614504941813713</v>
+      </c>
+      <c r="J30">
+        <v>-0.0840670784331581</v>
+      </c>
+      <c r="K30">
+        <v>-0.0625985462229299</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.056378515980358</v>
+        <v>0.03906682973542124</v>
       </c>
       <c r="C31">
-        <v>-0.01712766382524489</v>
+        <v>-0.0375986774209219</v>
       </c>
       <c r="D31">
-        <v>0.01012123120517635</v>
+        <v>-0.006618928883516719</v>
       </c>
       <c r="E31">
-        <v>-0.008289470348000804</v>
+        <v>0.005215971397880065</v>
       </c>
       <c r="F31">
-        <v>0.02436189510900879</v>
+        <v>-0.002669973631581186</v>
       </c>
       <c r="G31">
-        <v>-0.007833157726264512</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.03014522056723046</v>
+      </c>
+      <c r="H31">
+        <v>-0.0001265930362722495</v>
+      </c>
+      <c r="I31">
+        <v>0.03358993499591275</v>
+      </c>
+      <c r="J31">
+        <v>0.02230160093309084</v>
+      </c>
+      <c r="K31">
+        <v>-0.001465976595330615</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.03901144614794929</v>
+        <v>0.05184447973515566</v>
       </c>
       <c r="C32">
-        <v>0.01842901008859921</v>
+        <v>0.00128707706632923</v>
       </c>
       <c r="D32">
-        <v>-0.004451782083440494</v>
+        <v>0.01640326430789043</v>
       </c>
       <c r="E32">
-        <v>-0.08403383598245506</v>
+        <v>-0.04798663436520087</v>
       </c>
       <c r="F32">
-        <v>0.081150601370718</v>
+        <v>-0.02603563025207926</v>
       </c>
       <c r="G32">
-        <v>-0.05090089718648327</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.06869502139759799</v>
+      </c>
+      <c r="H32">
+        <v>0.0320494921610838</v>
+      </c>
+      <c r="I32">
+        <v>0.02468737657343949</v>
+      </c>
+      <c r="J32">
+        <v>0.02965759362858566</v>
+      </c>
+      <c r="K32">
+        <v>0.02833002657550855</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1120256274809432</v>
+        <v>0.09605416125316921</v>
       </c>
       <c r="C33">
-        <v>-0.01836164605758063</v>
+        <v>-0.04681024261085455</v>
       </c>
       <c r="D33">
-        <v>0.00759797033572207</v>
+        <v>-0.0570959607354379</v>
       </c>
       <c r="E33">
-        <v>-0.008310783115796028</v>
+        <v>0.02401284106504377</v>
       </c>
       <c r="F33">
-        <v>0.05184888534893103</v>
+        <v>-0.03430411300237049</v>
       </c>
       <c r="G33">
-        <v>-0.05525209391893415</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.06135861551452778</v>
+      </c>
+      <c r="H33">
+        <v>0.03112116823403287</v>
+      </c>
+      <c r="I33">
+        <v>0.01870230846673626</v>
+      </c>
+      <c r="J33">
+        <v>-0.01397920993399621</v>
+      </c>
+      <c r="K33">
+        <v>-0.0216552099896939</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06591192104444921</v>
+        <v>0.06887575321245171</v>
       </c>
       <c r="C34">
-        <v>-0.05299192989999685</v>
+        <v>-0.05008043867579408</v>
       </c>
       <c r="D34">
-        <v>-0.005571605565323065</v>
+        <v>-0.02664611881966534</v>
       </c>
       <c r="E34">
-        <v>-0.02249317425082424</v>
+        <v>0.02116444315078953</v>
       </c>
       <c r="F34">
-        <v>0.02027134322996587</v>
+        <v>-0.03850310274981403</v>
       </c>
       <c r="G34">
-        <v>-0.08954310755486034</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.1156420659087344</v>
+      </c>
+      <c r="H34">
+        <v>0.04743823570272145</v>
+      </c>
+      <c r="I34">
+        <v>0.003851460087856284</v>
+      </c>
+      <c r="J34">
+        <v>-0.09016100714407896</v>
+      </c>
+      <c r="K34">
+        <v>0.004736661758297291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04359169811477202</v>
+        <v>0.02360763824547626</v>
       </c>
       <c r="C35">
-        <v>-0.008271116116884964</v>
+        <v>-0.01618966063067943</v>
       </c>
       <c r="D35">
-        <v>0.01734695072870879</v>
+        <v>-0.01291350344102149</v>
       </c>
       <c r="E35">
-        <v>-0.006820116542146121</v>
+        <v>0.009183478525829916</v>
       </c>
       <c r="F35">
-        <v>-0.03481889935259374</v>
+        <v>-0.01635423508134756</v>
       </c>
       <c r="G35">
-        <v>-0.04551733984327522</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.04693933602499627</v>
+      </c>
+      <c r="H35">
+        <v>-0.006228401354889151</v>
+      </c>
+      <c r="I35">
+        <v>-0.02472651007404226</v>
+      </c>
+      <c r="J35">
+        <v>-0.01353837725986191</v>
+      </c>
+      <c r="K35">
+        <v>0.06015221554380511</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.03621264397362638</v>
+        <v>0.02901831371723521</v>
       </c>
       <c r="C36">
-        <v>-0.002212223578534783</v>
+        <v>-0.01188856409978408</v>
       </c>
       <c r="D36">
-        <v>-0.02378573158549291</v>
+        <v>-0.002025718941174764</v>
       </c>
       <c r="E36">
-        <v>-0.03443204747843324</v>
+        <v>0.0035144709851357</v>
       </c>
       <c r="F36">
-        <v>0.003152479145386832</v>
+        <v>8.906468961128316e-05</v>
       </c>
       <c r="G36">
-        <v>-0.06269048423650006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.07086212716177846</v>
+      </c>
+      <c r="H36">
+        <v>0.02322382379229183</v>
+      </c>
+      <c r="I36">
+        <v>-0.008795376472735766</v>
+      </c>
+      <c r="J36">
+        <v>0.02691949174772187</v>
+      </c>
+      <c r="K36">
+        <v>-0.00873493154005601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.05134737459242793</v>
+        <v>0.022260426682102</v>
       </c>
       <c r="C38">
-        <v>-0.01902264183105275</v>
+        <v>-0.02846704977319649</v>
       </c>
       <c r="D38">
-        <v>-2.878301278505741e-05</v>
+        <v>-0.01346677465004542</v>
       </c>
       <c r="E38">
-        <v>-0.01519064549800929</v>
+        <v>0.01766856957999314</v>
       </c>
       <c r="F38">
-        <v>-0.003537145039218055</v>
+        <v>0.01488009882035971</v>
       </c>
       <c r="G38">
-        <v>-0.0506213806194962</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.03099171656075091</v>
+      </c>
+      <c r="H38">
+        <v>-0.04408075980851592</v>
+      </c>
+      <c r="I38">
+        <v>-0.02019183197959107</v>
+      </c>
+      <c r="J38">
+        <v>0.01377569526477531</v>
+      </c>
+      <c r="K38">
+        <v>-0.008475243336494355</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.1069916201302916</v>
+        <v>0.1127731314318999</v>
       </c>
       <c r="C39">
-        <v>-0.0430188398935118</v>
+        <v>-0.07698280713741024</v>
       </c>
       <c r="D39">
-        <v>-0.004448984382500432</v>
+        <v>-0.05514884266538194</v>
       </c>
       <c r="E39">
-        <v>-0.07073529380031257</v>
+        <v>0.0302988501015864</v>
       </c>
       <c r="F39">
-        <v>0.01130252237851682</v>
+        <v>-0.1172352371447184</v>
       </c>
       <c r="G39">
-        <v>-0.1512384519475161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.1561360495877034</v>
+      </c>
+      <c r="H39">
+        <v>0.02137574312293875</v>
+      </c>
+      <c r="I39">
+        <v>-0.008569580996832459</v>
+      </c>
+      <c r="J39">
+        <v>-0.1784650238488732</v>
+      </c>
+      <c r="K39">
+        <v>-0.02162357739478921</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.05364996958052904</v>
+        <v>0.02419966823833034</v>
       </c>
       <c r="C40">
-        <v>-0.03418927959581078</v>
+        <v>-0.05885993974913732</v>
       </c>
       <c r="D40">
-        <v>0.0212181193166992</v>
+        <v>-0.006806057829145982</v>
       </c>
       <c r="E40">
-        <v>-0.1062533157458338</v>
+        <v>0.009746096443614969</v>
       </c>
       <c r="F40">
-        <v>-0.01968455733001719</v>
+        <v>0.04689285546805354</v>
       </c>
       <c r="G40">
-        <v>-0.2565915126171023</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.09849993095867834</v>
+      </c>
+      <c r="H40">
+        <v>0.06891869376497158</v>
+      </c>
+      <c r="I40">
+        <v>-0.0816761331947156</v>
+      </c>
+      <c r="J40">
+        <v>0.008389834868817034</v>
+      </c>
+      <c r="K40">
+        <v>0.001429333556049215</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.04796987755753333</v>
+        <v>0.0352017991149318</v>
       </c>
       <c r="C41">
-        <v>-0.03122707334796165</v>
+        <v>-0.0276632382021409</v>
       </c>
       <c r="D41">
-        <v>-0.0004185171289845568</v>
+        <v>0.002589584884829457</v>
       </c>
       <c r="E41">
-        <v>0.01156911967067642</v>
+        <v>0.01110092612149178</v>
       </c>
       <c r="F41">
-        <v>0.01895388019186988</v>
+        <v>-0.01790926831308763</v>
       </c>
       <c r="G41">
-        <v>-0.07192500098329986</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.01933279937130382</v>
+      </c>
+      <c r="H41">
+        <v>-0.0006341244343718981</v>
+      </c>
+      <c r="I41">
+        <v>0.00223821497212744</v>
+      </c>
+      <c r="J41">
+        <v>0.002702551049244053</v>
+      </c>
+      <c r="K41">
+        <v>0.01509277972621017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.07359928734049911</v>
+        <v>0.04987779824074274</v>
       </c>
       <c r="C43">
-        <v>-0.02661310530953176</v>
+        <v>-0.02597962968455762</v>
       </c>
       <c r="D43">
-        <v>-0.02175206501605902</v>
+        <v>-0.02121503245275318</v>
       </c>
       <c r="E43">
-        <v>-0.02230855530305613</v>
+        <v>0.02003569731509303</v>
       </c>
       <c r="F43">
-        <v>0.01542358522263722</v>
+        <v>0.0004537659907294394</v>
       </c>
       <c r="G43">
-        <v>-0.01505367465327437</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02998931858974527</v>
+      </c>
+      <c r="H43">
+        <v>-0.02414114836203723</v>
+      </c>
+      <c r="I43">
+        <v>-0.0008434802497534827</v>
+      </c>
+      <c r="J43">
+        <v>-0.0007527667676487328</v>
+      </c>
+      <c r="K43">
+        <v>-0.01032716655660328</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.06550259308999452</v>
+        <v>0.1032168889893387</v>
       </c>
       <c r="C44">
-        <v>-0.02589327470483099</v>
+        <v>-0.08393008605205843</v>
       </c>
       <c r="D44">
-        <v>-0.1024611580052864</v>
+        <v>-0.05720049055659311</v>
       </c>
       <c r="E44">
-        <v>-0.07003819146013548</v>
+        <v>0.1055157485427618</v>
       </c>
       <c r="F44">
-        <v>0.02485967861528291</v>
+        <v>0.05636081474667578</v>
       </c>
       <c r="G44">
-        <v>-0.1304234096912565</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.2554264370901076</v>
+      </c>
+      <c r="H44">
+        <v>0.04526042511497554</v>
+      </c>
+      <c r="I44">
+        <v>-0.07174674808021272</v>
+      </c>
+      <c r="J44">
+        <v>0.07511208090828272</v>
+      </c>
+      <c r="K44">
+        <v>0.161266587876962</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,263 +2275,407 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.04548967019536972</v>
+        <v>0.03095953055867622</v>
       </c>
       <c r="C46">
-        <v>-0.03806887404182019</v>
+        <v>-0.02146153927397863</v>
       </c>
       <c r="D46">
-        <v>-0.02487398068847819</v>
+        <v>-0.01777532582276825</v>
       </c>
       <c r="E46">
-        <v>-0.05246533992454091</v>
+        <v>0.03705779608537606</v>
       </c>
       <c r="F46">
-        <v>0.007614940200387524</v>
+        <v>0.02296578310003765</v>
       </c>
       <c r="G46">
-        <v>-0.04557826558588497</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.05883139855310873</v>
+      </c>
+      <c r="H46">
+        <v>-0.01598438526571254</v>
+      </c>
+      <c r="I46">
+        <v>-0.02035587468578334</v>
+      </c>
+      <c r="J46">
+        <v>0.02053873550551507</v>
+      </c>
+      <c r="K46">
+        <v>0.07340201355785751</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.04782202296414634</v>
+        <v>0.04186301773374804</v>
       </c>
       <c r="C47">
-        <v>-0.001253477312975165</v>
+        <v>-0.01866055874185359</v>
       </c>
       <c r="D47">
-        <v>-0.01147004359016263</v>
+        <v>-0.01210561028722483</v>
       </c>
       <c r="E47">
-        <v>-0.06221003588208963</v>
+        <v>0.007677809039450747</v>
       </c>
       <c r="F47">
-        <v>-0.01033610178609411</v>
+        <v>0.004953423700224477</v>
       </c>
       <c r="G47">
-        <v>0.002081523921617441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04650679128071156</v>
+      </c>
+      <c r="H47">
+        <v>0.004470507461152675</v>
+      </c>
+      <c r="I47">
+        <v>-0.009751588289432313</v>
+      </c>
+      <c r="J47">
+        <v>0.04449127103422661</v>
+      </c>
+      <c r="K47">
+        <v>0.03056600350084508</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04317708231757653</v>
+        <v>0.04323691230908999</v>
       </c>
       <c r="C48">
-        <v>0.001221099711162027</v>
+        <v>-0.01014587016517828</v>
       </c>
       <c r="D48">
-        <v>0.003322090317748633</v>
+        <v>-0.003181239402178258</v>
       </c>
       <c r="E48">
-        <v>-0.03549319506461143</v>
+        <v>0.007529644460576001</v>
       </c>
       <c r="F48">
-        <v>0.00268103949720239</v>
+        <v>-0.003183209491867056</v>
       </c>
       <c r="G48">
-        <v>-0.04679971486564214</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.06808493127636298</v>
+      </c>
+      <c r="H48">
+        <v>0.02390783380564696</v>
+      </c>
+      <c r="I48">
+        <v>-0.02091158112265807</v>
+      </c>
+      <c r="J48">
+        <v>-0.004789626507795955</v>
+      </c>
+      <c r="K48">
+        <v>0.02282794640520948</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.2345504695900615</v>
+        <v>0.2264629128122589</v>
       </c>
       <c r="C49">
-        <v>-0.09340645563374714</v>
+        <v>-0.04991571409819207</v>
       </c>
       <c r="D49">
-        <v>-0.03453847211505336</v>
+        <v>0.08101616301980642</v>
       </c>
       <c r="E49">
-        <v>0.09694769582410898</v>
+        <v>0.03032222528466263</v>
       </c>
       <c r="F49">
-        <v>-0.1686362625504195</v>
+        <v>-0.01604805030792674</v>
       </c>
       <c r="G49">
-        <v>0.08892058076575921</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>-0.2163381857716792</v>
+      </c>
+      <c r="H49">
+        <v>-0.04127974907942139</v>
+      </c>
+      <c r="I49">
+        <v>-0.1744525744603061</v>
+      </c>
+      <c r="J49">
+        <v>-0.2328789290690551</v>
+      </c>
+      <c r="K49">
+        <v>-0.1993350799114297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.05428153240948757</v>
+        <v>0.04443394366176544</v>
       </c>
       <c r="C50">
-        <v>-0.01573527412151659</v>
+        <v>-0.02813772343558378</v>
       </c>
       <c r="D50">
-        <v>0.00751616123294206</v>
+        <v>0.000732443289312223</v>
       </c>
       <c r="E50">
-        <v>-0.02920071499151449</v>
+        <v>-0.002315332430169857</v>
       </c>
       <c r="F50">
-        <v>0.04846716299506879</v>
+        <v>-0.004695306907517771</v>
       </c>
       <c r="G50">
-        <v>0.0009973518228997805</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.0543031755109394</v>
+      </c>
+      <c r="H50">
+        <v>0.005480987403936577</v>
+      </c>
+      <c r="I50">
+        <v>0.02227411703262364</v>
+      </c>
+      <c r="J50">
+        <v>0.02754690191443615</v>
+      </c>
+      <c r="K50">
+        <v>-0.02030892310391733</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03618729617034212</v>
+        <v>0.0213975032217185</v>
       </c>
       <c r="C51">
-        <v>-0.01378582706151536</v>
+        <v>0.001580270901350888</v>
       </c>
       <c r="D51">
-        <v>-0.01444628466214721</v>
+        <v>-0.01043041003639067</v>
       </c>
       <c r="E51">
-        <v>0.008511708569244852</v>
+        <v>0.02583862097738268</v>
       </c>
       <c r="F51">
-        <v>-0.001121630393234152</v>
+        <v>0.001214756244915514</v>
       </c>
       <c r="G51">
-        <v>-0.004085208725569149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03231463614154667</v>
+      </c>
+      <c r="H51">
+        <v>0.00715481872969666</v>
+      </c>
+      <c r="I51">
+        <v>-0.01440286670662027</v>
+      </c>
+      <c r="J51">
+        <v>-0.03410305208556997</v>
+      </c>
+      <c r="K51">
+        <v>-0.02673491987452136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.06838736904840138</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.03592628249463463</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.01725114566130391</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>-0.005755983742200901</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>-0.02432358470726749</v>
       </c>
       <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.04209604208208421</v>
+      </c>
+      <c r="H52">
+        <v>-0.07696674015915649</v>
+      </c>
+      <c r="I52">
+        <v>0.1104982413622159</v>
+      </c>
+      <c r="J52">
+        <v>0.01491711654846724</v>
+      </c>
+      <c r="K52">
+        <v>0.01295659939906642</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1590316146948491</v>
+        <v>0.1623820107975729</v>
       </c>
       <c r="C53">
-        <v>0.00125275588809065</v>
+        <v>-0.03576987724223779</v>
       </c>
       <c r="D53">
-        <v>-0.00960781284479896</v>
+        <v>0.007226415809521694</v>
       </c>
       <c r="E53">
-        <v>0.05144589880154237</v>
+        <v>0.02121805662129037</v>
       </c>
       <c r="F53">
-        <v>0.2404215131110623</v>
+        <v>-0.01142404099933025</v>
       </c>
       <c r="G53">
-        <v>0.06717395707655008</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.03512235914591517</v>
+      </c>
+      <c r="H53">
+        <v>-0.1608617742793221</v>
+      </c>
+      <c r="I53">
+        <v>0.2469526142366253</v>
+      </c>
+      <c r="J53">
+        <v>0.1004931680615278</v>
+      </c>
+      <c r="K53">
+        <v>-0.0516682515115756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.05394292461146077</v>
+        <v>0.05623945528677997</v>
       </c>
       <c r="C54">
-        <v>-0.002964456513146853</v>
+        <v>-0.0360668259235758</v>
       </c>
       <c r="D54">
-        <v>-0.02778835752875812</v>
+        <v>-0.003627653188826688</v>
       </c>
       <c r="E54">
-        <v>-0.04668782139566375</v>
+        <v>0.0153100364596901</v>
       </c>
       <c r="F54">
-        <v>0.01509892040540868</v>
+        <v>0.01086348602298705</v>
       </c>
       <c r="G54">
-        <v>-0.07651218448673845</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.1029455412791672</v>
+      </c>
+      <c r="H54">
+        <v>0.07915821798415852</v>
+      </c>
+      <c r="I54">
+        <v>-0.001299258335627913</v>
+      </c>
+      <c r="J54">
+        <v>0.09850283327874866</v>
+      </c>
+      <c r="K54">
+        <v>0.09392213835614609</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09521005402208188</v>
+        <v>0.08905278600961808</v>
       </c>
       <c r="C55">
-        <v>-0.01176655784962138</v>
+        <v>-0.03021274849366255</v>
       </c>
       <c r="D55">
-        <v>-0.01593853751610158</v>
+        <v>-0.04335678433447916</v>
       </c>
       <c r="E55">
-        <v>-0.001725315144711823</v>
+        <v>0.04078976242571601</v>
       </c>
       <c r="F55">
-        <v>0.1804064390062751</v>
+        <v>-0.03216076115918708</v>
       </c>
       <c r="G55">
-        <v>0.01511216743972075</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.003444475611385794</v>
+      </c>
+      <c r="H55">
+        <v>-0.05519727377632008</v>
+      </c>
+      <c r="I55">
+        <v>0.1606219983979114</v>
+      </c>
+      <c r="J55">
+        <v>0.0463890987529418</v>
+      </c>
+      <c r="K55">
+        <v>-0.013587930863527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.162456274007898</v>
+        <v>0.1595847836689802</v>
       </c>
       <c r="C56">
-        <v>0.004733059848081019</v>
+        <v>-0.04787672644520643</v>
       </c>
       <c r="D56">
-        <v>-0.00810272045727195</v>
+        <v>-0.0118370944563263</v>
       </c>
       <c r="E56">
-        <v>0.05569613435482614</v>
+        <v>0.04905861380144269</v>
       </c>
       <c r="F56">
-        <v>0.235510165028272</v>
+        <v>-0.04105365697822862</v>
       </c>
       <c r="G56">
-        <v>0.07249836794441936</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.002472610701192313</v>
+      </c>
+      <c r="H56">
+        <v>-0.1294357306954575</v>
+      </c>
+      <c r="I56">
+        <v>0.2032123505684321</v>
+      </c>
+      <c r="J56">
+        <v>0.06623492168542379</v>
+      </c>
+      <c r="K56">
+        <v>-0.05904997701676548</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,1022 +2695,1562 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.03651311232322655</v>
+        <v>0.04475013873494715</v>
       </c>
       <c r="C58">
-        <v>-0.05215722195673361</v>
+        <v>-0.04139760466325067</v>
       </c>
       <c r="D58">
-        <v>0.0244509900065908</v>
+        <v>-0.02538542728358591</v>
       </c>
       <c r="E58">
-        <v>-0.2819411066227099</v>
+        <v>-0.008632573252006512</v>
       </c>
       <c r="F58">
-        <v>-0.4634610557585543</v>
+        <v>0.07911719999669717</v>
       </c>
       <c r="G58">
-        <v>-0.09562167997543997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.103838494930407</v>
+      </c>
+      <c r="H58">
+        <v>-0.05682317448904031</v>
+      </c>
+      <c r="I58">
+        <v>-0.2050354344031037</v>
+      </c>
+      <c r="J58">
+        <v>-0.07299101699607462</v>
+      </c>
+      <c r="K58">
+        <v>0.2134113507303743</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1605128733650582</v>
+        <v>0.1923146681366968</v>
       </c>
       <c r="C59">
-        <v>0.3866894227558137</v>
+        <v>0.3027070123577014</v>
       </c>
       <c r="D59">
-        <v>-0.08960715904845465</v>
+        <v>-0.008339541230694065</v>
       </c>
       <c r="E59">
-        <v>0.07709855546047918</v>
+        <v>0.0346604128457579</v>
       </c>
       <c r="F59">
-        <v>0.04966068278827845</v>
+        <v>-0.03679973954268229</v>
       </c>
       <c r="G59">
-        <v>-0.03049090273678834</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0164563948398884</v>
+      </c>
+      <c r="H59">
+        <v>0.06984774563606758</v>
+      </c>
+      <c r="I59">
+        <v>0.08421892153838512</v>
+      </c>
+      <c r="J59">
+        <v>0.001283759073736777</v>
+      </c>
+      <c r="K59">
+        <v>-0.0006798301700933919</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.264942850182569</v>
+        <v>0.2500281083866173</v>
       </c>
       <c r="C60">
-        <v>-0.06953369455738929</v>
+        <v>-0.1073067920106036</v>
       </c>
       <c r="D60">
-        <v>-0.07347066800266445</v>
+        <v>0.09083372717526533</v>
       </c>
       <c r="E60">
-        <v>0.0834973139925255</v>
+        <v>0.05680598200169178</v>
       </c>
       <c r="F60">
-        <v>-0.07641585120962995</v>
+        <v>-0.02190168671329943</v>
       </c>
       <c r="G60">
-        <v>0.1951707925051107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1182696702146995</v>
+      </c>
+      <c r="H60">
+        <v>-0.04505375520896465</v>
+      </c>
+      <c r="I60">
+        <v>-0.1102429691560044</v>
+      </c>
+      <c r="J60">
+        <v>0.005640562990413964</v>
+      </c>
+      <c r="K60">
+        <v>-0.227197495353117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.09290100358303149</v>
+        <v>0.1054278217277361</v>
       </c>
       <c r="C61">
-        <v>-0.01880911940485226</v>
+        <v>-0.04452516512639416</v>
       </c>
       <c r="D61">
-        <v>-0.005404165167360907</v>
+        <v>-0.03337477911166668</v>
       </c>
       <c r="E61">
-        <v>-0.02564205591920082</v>
+        <v>0.0445410412051921</v>
       </c>
       <c r="F61">
-        <v>0.02364421453513147</v>
+        <v>-0.08147208829772649</v>
       </c>
       <c r="G61">
-        <v>-0.06155717192462494</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.1324625381705931</v>
+      </c>
+      <c r="H61">
+        <v>0.01851074093101047</v>
+      </c>
+      <c r="I61">
+        <v>0.04838978190653218</v>
+      </c>
+      <c r="J61">
+        <v>-0.1041723824834398</v>
+      </c>
+      <c r="K61">
+        <v>0.00466367864655978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1464192560580151</v>
+        <v>0.1510229441018194</v>
       </c>
       <c r="C62">
-        <v>-0.0269342078635854</v>
+        <v>-0.04828286313890923</v>
       </c>
       <c r="D62">
-        <v>0.03600395813425045</v>
+        <v>-0.01200693336045897</v>
       </c>
       <c r="E62">
-        <v>0.1204172778080358</v>
+        <v>0.01918034908484652</v>
       </c>
       <c r="F62">
-        <v>0.2411502102620688</v>
+        <v>-0.03731345110300136</v>
       </c>
       <c r="G62">
-        <v>0.0273074916273865</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>-0.02588864754573871</v>
+      </c>
+      <c r="H62">
+        <v>-0.1315226993081671</v>
+      </c>
+      <c r="I62">
+        <v>0.2038175103818093</v>
+      </c>
+      <c r="J62">
+        <v>0.09508344212728739</v>
+      </c>
+      <c r="K62">
+        <v>-0.03565504652303596</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.04284644597841235</v>
+        <v>0.04264077678097047</v>
       </c>
       <c r="C63">
-        <v>-0.01381783774166529</v>
+        <v>-0.01336405002506846</v>
       </c>
       <c r="D63">
-        <v>0.004363768931050578</v>
+        <v>-0.01828322296389838</v>
       </c>
       <c r="E63">
-        <v>-0.005274758480333853</v>
+        <v>-0.0161427826042467</v>
       </c>
       <c r="F63">
-        <v>0.01624834993688811</v>
+        <v>-0.01266209809998285</v>
       </c>
       <c r="G63">
-        <v>-0.03878252219766661</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.06336429608856559</v>
+      </c>
+      <c r="H63">
+        <v>0.02524505188389427</v>
+      </c>
+      <c r="I63">
+        <v>-0.0189096367446784</v>
+      </c>
+      <c r="J63">
+        <v>9.812515922369722e-05</v>
+      </c>
+      <c r="K63">
+        <v>-0.006780673376027448</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1039624384217386</v>
+        <v>0.09909417050791985</v>
       </c>
       <c r="C64">
-        <v>-0.01240843841174329</v>
+        <v>-0.03913646476354424</v>
       </c>
       <c r="D64">
-        <v>-0.03915266902503396</v>
+        <v>0.009147790793189536</v>
       </c>
       <c r="E64">
-        <v>-0.03785503586614593</v>
+        <v>0.05021657035940428</v>
       </c>
       <c r="F64">
-        <v>-0.0265780114620417</v>
+        <v>0.0007720267301892498</v>
       </c>
       <c r="G64">
-        <v>-0.05593855536606551</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.08781573692447069</v>
+      </c>
+      <c r="H64">
+        <v>0.03026817486320628</v>
+      </c>
+      <c r="I64">
+        <v>-0.07942402574533948</v>
+      </c>
+      <c r="J64">
+        <v>-0.02114429336232145</v>
+      </c>
+      <c r="K64">
+        <v>-0.05291110966142229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1216580912390583</v>
+        <v>0.1180905358425965</v>
       </c>
       <c r="C65">
-        <v>-0.02951354661021804</v>
+        <v>-0.02846829639491913</v>
       </c>
       <c r="D65">
-        <v>-0.02755277056104117</v>
+        <v>0.004591664718129406</v>
       </c>
       <c r="E65">
-        <v>-0.05211429282677298</v>
+        <v>-0.037379623124291</v>
       </c>
       <c r="F65">
-        <v>-0.1902431581353662</v>
+        <v>0.004088350450656645</v>
       </c>
       <c r="G65">
-        <v>0.1578655025763036</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.03496662573725724</v>
+      </c>
+      <c r="H65">
+        <v>0.04325489919217666</v>
+      </c>
+      <c r="I65">
+        <v>-0.2817848287728811</v>
+      </c>
+      <c r="J65">
+        <v>0.4922936543683444</v>
+      </c>
+      <c r="K65">
+        <v>-0.2705116036174285</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1588900042123209</v>
+        <v>0.1399329833921536</v>
       </c>
       <c r="C66">
-        <v>-0.05183770459239499</v>
+        <v>-0.1027400235349236</v>
       </c>
       <c r="D66">
-        <v>0.01937556316287782</v>
+        <v>-0.05884969322525874</v>
       </c>
       <c r="E66">
-        <v>-0.02617976800262561</v>
+        <v>0.02915821770618173</v>
       </c>
       <c r="F66">
-        <v>0.04301583337628681</v>
+        <v>-0.1281662308104162</v>
       </c>
       <c r="G66">
-        <v>-0.295277311061296</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.1445671457811561</v>
+      </c>
+      <c r="H66">
+        <v>-0.002503109103792122</v>
+      </c>
+      <c r="I66">
+        <v>0.02703018806407144</v>
+      </c>
+      <c r="J66">
+        <v>-0.2222761025302682</v>
+      </c>
+      <c r="K66">
+        <v>-0.09512773450514501</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.1015012341803832</v>
+        <v>0.06844119040483312</v>
       </c>
       <c r="C67">
-        <v>-0.04024949017733501</v>
+        <v>-0.03742550709942227</v>
       </c>
       <c r="D67">
-        <v>-0.01796591338626451</v>
+        <v>-0.06538410120059536</v>
       </c>
       <c r="E67">
-        <v>0.009884837429394515</v>
+        <v>0.05100235638004936</v>
       </c>
       <c r="F67">
-        <v>0.003344621282511917</v>
+        <v>-0.001037711241661631</v>
       </c>
       <c r="G67">
-        <v>-0.04987005952198176</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0613926646825631</v>
+      </c>
+      <c r="H67">
+        <v>-0.01188355423118531</v>
+      </c>
+      <c r="I67">
+        <v>0.02464329261786148</v>
+      </c>
+      <c r="J67">
+        <v>-0.01726917889317688</v>
+      </c>
+      <c r="K67">
+        <v>-0.04396427245518036</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.04389291878837256</v>
+        <v>0.1017064807539084</v>
       </c>
       <c r="C68">
-        <v>0.2942764582298937</v>
+        <v>0.2793353852053934</v>
       </c>
       <c r="D68">
-        <v>-0.03962327052638012</v>
+        <v>-0.002565258046727465</v>
       </c>
       <c r="E68">
-        <v>0.007487023896445884</v>
+        <v>-0.0132367359592912</v>
       </c>
       <c r="F68">
-        <v>-0.01070726033030926</v>
+        <v>-0.008896133662253383</v>
       </c>
       <c r="G68">
-        <v>0.02101405183567558</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03532985187821854</v>
+      </c>
+      <c r="H68">
+        <v>0.02316738707039262</v>
+      </c>
+      <c r="I68">
+        <v>-0.000333963433690556</v>
+      </c>
+      <c r="J68">
+        <v>0.01743066397047237</v>
+      </c>
+      <c r="K68">
+        <v>-0.01128831068092304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.0467937231799622</v>
+        <v>0.0373469532562327</v>
       </c>
       <c r="C69">
-        <v>-0.01601633067112048</v>
+        <v>0.001053700925663414</v>
       </c>
       <c r="D69">
-        <v>-0.009427357452813223</v>
+        <v>-0.0243769586539547</v>
       </c>
       <c r="E69">
-        <v>-0.0006362188686720308</v>
+        <v>0.02591744064573833</v>
       </c>
       <c r="F69">
-        <v>0.02010952984964679</v>
+        <v>-0.00041626765449993</v>
       </c>
       <c r="G69">
-        <v>-0.02753925915066358</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01404786423350437</v>
+      </c>
+      <c r="H69">
+        <v>-0.0177266153286256</v>
+      </c>
+      <c r="I69">
+        <v>0.001473269219640347</v>
+      </c>
+      <c r="J69">
+        <v>0.02811314969432692</v>
+      </c>
+      <c r="K69">
+        <v>-0.01089788648738704</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.07538279329524439</v>
+        <v>0.04631567210375145</v>
       </c>
       <c r="C70">
-        <v>-0.007735823775269594</v>
+        <v>-0.01054099506853016</v>
       </c>
       <c r="D70">
-        <v>-0.04032392456706345</v>
+        <v>-0.01557570877972893</v>
       </c>
       <c r="E70">
-        <v>0.03266851753653124</v>
+        <v>0.0436554731902343</v>
       </c>
       <c r="F70">
-        <v>-0.0857472045566455</v>
+        <v>-0.03577905078825535</v>
       </c>
       <c r="G70">
-        <v>-0.007960459958874204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>0.02222329015271003</v>
+      </c>
+      <c r="H70">
+        <v>0.02223855330916799</v>
+      </c>
+      <c r="I70">
+        <v>-0.08705282613046665</v>
+      </c>
+      <c r="J70">
+        <v>0.1141443698644597</v>
+      </c>
+      <c r="K70">
+        <v>0.1590031134919679</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.05151323995576128</v>
+        <v>0.116664701041851</v>
       </c>
       <c r="C71">
-        <v>0.2969006197026804</v>
+        <v>0.2923321433919791</v>
       </c>
       <c r="D71">
-        <v>-0.05784556036951057</v>
+        <v>0.009807040427623554</v>
       </c>
       <c r="E71">
-        <v>0.01140604980226956</v>
+        <v>0.01108640184435538</v>
       </c>
       <c r="F71">
-        <v>-0.01542394264988451</v>
+        <v>-0.0008437432132052299</v>
       </c>
       <c r="G71">
-        <v>-0.01261133661298119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.05066396643805256</v>
+      </c>
+      <c r="H71">
+        <v>0.006671454308819537</v>
+      </c>
+      <c r="I71">
+        <v>0.0005236943723134787</v>
+      </c>
+      <c r="J71">
+        <v>-0.01206760536970594</v>
+      </c>
+      <c r="K71">
+        <v>-0.03750875317866761</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1505093371582722</v>
+        <v>0.14603661373537</v>
       </c>
       <c r="C72">
-        <v>0.04583525748558172</v>
+        <v>-0.01098943083190006</v>
       </c>
       <c r="D72">
-        <v>0.2318889136162496</v>
+        <v>-0.03783675510742075</v>
       </c>
       <c r="E72">
-        <v>0.02940656492026665</v>
+        <v>-0.09317232630423214</v>
       </c>
       <c r="F72">
-        <v>0.03338232698266085</v>
+        <v>-0.002801480037918705</v>
       </c>
       <c r="G72">
-        <v>-0.06484903991075196</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.001307807145805598</v>
+      </c>
+      <c r="H72">
+        <v>-0.03617058129991585</v>
+      </c>
+      <c r="I72">
+        <v>0.02360331718424413</v>
+      </c>
+      <c r="J72">
+        <v>0.1008939973376242</v>
+      </c>
+      <c r="K72">
+        <v>-0.1275170563576416</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2881179126230147</v>
+        <v>0.2360651729999259</v>
       </c>
       <c r="C73">
-        <v>-0.1572925794476478</v>
+        <v>-0.1164520717015312</v>
       </c>
       <c r="D73">
-        <v>-0.048754204232521</v>
+        <v>0.02854637654642374</v>
       </c>
       <c r="E73">
-        <v>0.1690464807297385</v>
+        <v>0.1483308120709673</v>
       </c>
       <c r="F73">
-        <v>-0.2929537882567258</v>
+        <v>-0.08785891487648342</v>
       </c>
       <c r="G73">
-        <v>0.2759499076563208</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.4065573606363456</v>
+      </c>
+      <c r="H73">
+        <v>-0.1598125298270992</v>
+      </c>
+      <c r="I73">
+        <v>-0.3102112565233137</v>
+      </c>
+      <c r="J73">
+        <v>-0.2991621465931721</v>
+      </c>
+      <c r="K73">
+        <v>-0.1457964530308086</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.09930634283737896</v>
+        <v>0.1143261995706549</v>
       </c>
       <c r="C74">
-        <v>-0.03828963471333478</v>
+        <v>-0.06125026948074236</v>
       </c>
       <c r="D74">
-        <v>0.005692736232772459</v>
+        <v>-0.0345856672997904</v>
       </c>
       <c r="E74">
-        <v>0.01156605555478485</v>
+        <v>0.02221945271344407</v>
       </c>
       <c r="F74">
-        <v>0.09947539913634267</v>
+        <v>-0.02247743613453936</v>
       </c>
       <c r="G74">
-        <v>0.03564835851423301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.006724007129566101</v>
+      </c>
+      <c r="H74">
+        <v>-0.1346080929082554</v>
+      </c>
+      <c r="I74">
+        <v>0.1015071455267051</v>
+      </c>
+      <c r="J74">
+        <v>0.03865897787005854</v>
+      </c>
+      <c r="K74">
+        <v>-0.01867306524095977</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.09482125121008199</v>
+        <v>0.1069266986022962</v>
       </c>
       <c r="C75">
-        <v>-0.01405624801148067</v>
+        <v>-0.04564329579672761</v>
       </c>
       <c r="D75">
-        <v>0.0217821931689413</v>
+        <v>-0.006717729600350034</v>
       </c>
       <c r="E75">
-        <v>0.03553360159286965</v>
+        <v>-0.000618585526025236</v>
       </c>
       <c r="F75">
-        <v>0.1187535286381709</v>
+        <v>-0.01169369391485376</v>
       </c>
       <c r="G75">
-        <v>0.07033331060732384</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.02239368925530237</v>
+      </c>
+      <c r="H75">
+        <v>-0.06835849685354717</v>
+      </c>
+      <c r="I75">
+        <v>0.1358725888570899</v>
+      </c>
+      <c r="J75">
+        <v>0.04796720759953232</v>
+      </c>
+      <c r="K75">
+        <v>0.00626217110674806</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1380568754791938</v>
+        <v>0.0603225720976797</v>
       </c>
       <c r="C76">
-        <v>-0.03012333656225644</v>
+        <v>-0.02876236014227924</v>
       </c>
       <c r="D76">
-        <v>-0.01533140236201027</v>
+        <v>-0.02878851933165257</v>
       </c>
       <c r="E76">
-        <v>-0.01785919270559546</v>
+        <v>0.04544285627016498</v>
       </c>
       <c r="F76">
-        <v>0.2243512449890082</v>
+        <v>-0.001231601573476797</v>
       </c>
       <c r="G76">
-        <v>0.1127200541532404</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.06309576256799987</v>
+      </c>
+      <c r="H76">
+        <v>-0.0624365181259229</v>
+      </c>
+      <c r="I76">
+        <v>0.1322939975607166</v>
+      </c>
+      <c r="J76">
+        <v>0.03920582076885182</v>
+      </c>
+      <c r="K76">
+        <v>-0.009216711927049986</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.08930619717782241</v>
+        <v>0.07430616120858674</v>
       </c>
       <c r="C77">
-        <v>0.007122032004802934</v>
+        <v>-0.0346930655204829</v>
       </c>
       <c r="D77">
-        <v>-0.04465233333770377</v>
+        <v>0.01971991331075175</v>
       </c>
       <c r="E77">
-        <v>-0.05509125837988547</v>
+        <v>0.04035485088023291</v>
       </c>
       <c r="F77">
-        <v>-0.1539609063583318</v>
+        <v>-0.0057486648243162</v>
       </c>
       <c r="G77">
-        <v>-0.1785416918151711</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.1311290229656401</v>
+      </c>
+      <c r="H77">
+        <v>0.2092467014452779</v>
+      </c>
+      <c r="I77">
+        <v>-0.1241559706591106</v>
+      </c>
+      <c r="J77">
+        <v>0.09732963732266282</v>
+      </c>
+      <c r="K77">
+        <v>-0.1690431071702829</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.2113430909107206</v>
+        <v>0.1465692483248388</v>
       </c>
       <c r="C78">
-        <v>-0.0710509627449973</v>
+        <v>-0.1180911058628745</v>
       </c>
       <c r="D78">
-        <v>-0.0682002887839592</v>
+        <v>-0.1013293701710465</v>
       </c>
       <c r="E78">
-        <v>-0.1864608119811756</v>
+        <v>0.04548858192277472</v>
       </c>
       <c r="F78">
-        <v>0.007338677126795108</v>
+        <v>0.2496082876953872</v>
       </c>
       <c r="G78">
-        <v>-0.1388331664929563</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.3357860006695412</v>
+      </c>
+      <c r="H78">
+        <v>0.7462497738471294</v>
+      </c>
+      <c r="I78">
+        <v>0.343141452112022</v>
+      </c>
+      <c r="J78">
+        <v>-0.02389206674661022</v>
+      </c>
+      <c r="K78">
+        <v>-0.0172292766136381</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1364732365447852</v>
+        <v>0.1349178885266214</v>
       </c>
       <c r="C79">
-        <v>-0.009758996310488472</v>
+        <v>-0.04547062223263895</v>
       </c>
       <c r="D79">
-        <v>0.0009904134382494026</v>
+        <v>0.01047773071135393</v>
       </c>
       <c r="E79">
-        <v>0.01853946496052266</v>
+        <v>0.006241859732822154</v>
       </c>
       <c r="F79">
-        <v>0.1657630043830114</v>
+        <v>-0.004827700053885558</v>
       </c>
       <c r="G79">
-        <v>0.001994414995599687</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>0.0283847467208244</v>
+      </c>
+      <c r="H79">
+        <v>-0.09881988107972872</v>
+      </c>
+      <c r="I79">
+        <v>0.1401597158036531</v>
+      </c>
+      <c r="J79">
+        <v>0.07977732459209046</v>
+      </c>
+      <c r="K79">
+        <v>-0.04120309147207589</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.03502245557209632</v>
+        <v>0.06272655031784054</v>
       </c>
       <c r="C80">
-        <v>-0.00946076994233544</v>
+        <v>-0.04145541125152714</v>
       </c>
       <c r="D80">
-        <v>-0.01815700197657164</v>
+        <v>-0.03033201384442099</v>
       </c>
       <c r="E80">
-        <v>0.02719752336065778</v>
+        <v>0.04972800608416171</v>
       </c>
       <c r="F80">
-        <v>-0.01893118759303333</v>
+        <v>-0.0687179479621025</v>
       </c>
       <c r="G80">
-        <v>-0.07451171647285391</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.02054841180460248</v>
+      </c>
+      <c r="H80">
+        <v>0.04269923916484283</v>
+      </c>
+      <c r="I80">
+        <v>0.005895849697750287</v>
+      </c>
+      <c r="J80">
+        <v>-0.009124157964919208</v>
+      </c>
+      <c r="K80">
+        <v>0.09783272762971895</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1093215901518053</v>
+        <v>0.131313543165597</v>
       </c>
       <c r="C81">
-        <v>-0.01333980613802549</v>
+        <v>-0.05376500440482825</v>
       </c>
       <c r="D81">
-        <v>-0.009083430213820371</v>
+        <v>-0.003431752680674128</v>
       </c>
       <c r="E81">
-        <v>0.02054917731930482</v>
+        <v>0.02284382301469724</v>
       </c>
       <c r="F81">
-        <v>0.1400537271225508</v>
+        <v>-0.01449904279176071</v>
       </c>
       <c r="G81">
-        <v>0.04562456526742566</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.03805600204836421</v>
+      </c>
+      <c r="H81">
+        <v>-0.07845204134553975</v>
+      </c>
+      <c r="I81">
+        <v>0.1288497851085617</v>
+      </c>
+      <c r="J81">
+        <v>0.03271353069040643</v>
+      </c>
+      <c r="K81">
+        <v>0.01056389128536681</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1114394947773268</v>
+        <v>0.141921155632628</v>
       </c>
       <c r="C82">
-        <v>-0.02212674417251135</v>
+        <v>-0.04482951600144425</v>
       </c>
       <c r="D82">
-        <v>-0.05127641123183064</v>
+        <v>0.005420480971430263</v>
       </c>
       <c r="E82">
-        <v>0.05426908501474725</v>
+        <v>0.03996417400793911</v>
       </c>
       <c r="F82">
-        <v>0.2307385043520669</v>
+        <v>-0.04615940487734989</v>
       </c>
       <c r="G82">
-        <v>0.007332348075880579</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>0.01833770162209555</v>
+      </c>
+      <c r="H82">
+        <v>-0.172570131865141</v>
+      </c>
+      <c r="I82">
+        <v>0.256618486878842</v>
+      </c>
+      <c r="J82">
+        <v>0.01765624188634505</v>
+      </c>
+      <c r="K82">
+        <v>0.06323314097865348</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.1023483047128821</v>
+        <v>0.08979167367550295</v>
       </c>
       <c r="C83">
-        <v>-0.05650769186295036</v>
+        <v>-0.1061894518087912</v>
       </c>
       <c r="D83">
-        <v>-0.05696381219867109</v>
+        <v>-0.01019097804977545</v>
       </c>
       <c r="E83">
-        <v>0.02392935613409241</v>
+        <v>0.02621675791371101</v>
       </c>
       <c r="F83">
-        <v>-0.07794879072949203</v>
+        <v>-0.001037187146001652</v>
       </c>
       <c r="G83">
-        <v>-0.0682337966261729</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.03689989774773309</v>
+      </c>
+      <c r="H83">
+        <v>0.04888666238807978</v>
+      </c>
+      <c r="I83">
+        <v>-0.03077254462433774</v>
+      </c>
+      <c r="J83">
+        <v>0.1168395658982455</v>
+      </c>
+      <c r="K83">
+        <v>0.08774046911976983</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.05456536958131039</v>
+        <v>0.05431916613000912</v>
       </c>
       <c r="C84">
-        <v>-0.02420203751584931</v>
+        <v>0.02892658920345928</v>
       </c>
       <c r="D84">
-        <v>0.0439406735873804</v>
+        <v>0.04028926348825129</v>
       </c>
       <c r="E84">
-        <v>-0.03630869011788186</v>
+        <v>-0.01875395875414704</v>
       </c>
       <c r="F84">
-        <v>0.02650735273025174</v>
+        <v>-0.003862234907158064</v>
       </c>
       <c r="G84">
-        <v>0.02770509328112799</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.04620659104809983</v>
+      </c>
+      <c r="H84">
+        <v>0.10514223117698</v>
+      </c>
+      <c r="I84">
+        <v>-0.008346887606697571</v>
+      </c>
+      <c r="J84">
+        <v>-0.3397684943352701</v>
+      </c>
+      <c r="K84">
+        <v>0.1517861598744385</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.100783839234467</v>
+        <v>0.1190708384494029</v>
       </c>
       <c r="C85">
-        <v>-0.02045296230954528</v>
+        <v>-0.0410909256430804</v>
       </c>
       <c r="D85">
-        <v>-0.02267552139452303</v>
+        <v>0.01073693952954829</v>
       </c>
       <c r="E85">
-        <v>0.02172045911929841</v>
+        <v>0.04220476840251381</v>
       </c>
       <c r="F85">
-        <v>0.1960613503941554</v>
+        <v>-0.0193206913160139</v>
       </c>
       <c r="G85">
-        <v>0.01601118069750207</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.01846584259954552</v>
+      </c>
+      <c r="H85">
+        <v>-0.09906281016654213</v>
+      </c>
+      <c r="I85">
+        <v>0.1638987624328047</v>
+      </c>
+      <c r="J85">
+        <v>0.06280582670755407</v>
+      </c>
+      <c r="K85">
+        <v>-0.0451832571485863</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.06616485956666135</v>
+        <v>0.1415405664379312</v>
       </c>
       <c r="C86">
-        <v>-0.02917363000649309</v>
+        <v>-0.1072292440164915</v>
       </c>
       <c r="D86">
-        <v>-0.0481741695953606</v>
+        <v>0.8388359837361214</v>
       </c>
       <c r="E86">
-        <v>-0.04739049288494272</v>
+        <v>-0.3951300203259017</v>
       </c>
       <c r="F86">
-        <v>-0.03740292472672631</v>
+        <v>0.1598966938653507</v>
       </c>
       <c r="G86">
-        <v>-0.1411939843033839</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.1149317688584227</v>
+      </c>
+      <c r="H86">
+        <v>0.045978487975486</v>
+      </c>
+      <c r="I86">
+        <v>0.06321492685179776</v>
+      </c>
+      <c r="J86">
+        <v>-0.05800850156920294</v>
+      </c>
+      <c r="K86">
+        <v>0.03569275875037982</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.1025656693504523</v>
+        <v>0.1093586343414436</v>
       </c>
       <c r="C87">
-        <v>-0.06077519040579468</v>
+        <v>-0.09194795735807536</v>
       </c>
       <c r="D87">
-        <v>-0.02062802216313805</v>
+        <v>-0.004865288260425319</v>
       </c>
       <c r="E87">
-        <v>-0.0523016975930858</v>
+        <v>0.03771271539597591</v>
       </c>
       <c r="F87">
-        <v>-0.02352790970104389</v>
+        <v>0.01990879559457042</v>
       </c>
       <c r="G87">
-        <v>-0.122683331472919</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.1241037483942784</v>
+      </c>
+      <c r="H87">
+        <v>0.07526829615471813</v>
+      </c>
+      <c r="I87">
+        <v>-0.1409913488171585</v>
+      </c>
+      <c r="J87">
+        <v>0.1070479527255963</v>
+      </c>
+      <c r="K87">
+        <v>0.04950027652440329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.0690800816809337</v>
+        <v>0.05652518231951804</v>
       </c>
       <c r="C88">
-        <v>-0.03583451056270567</v>
+        <v>-0.0443025801471182</v>
       </c>
       <c r="D88">
-        <v>-0.02435469370314151</v>
+        <v>-0.01171640064650915</v>
       </c>
       <c r="E88">
-        <v>-0.01120871715250781</v>
+        <v>0.0326766007170748</v>
       </c>
       <c r="F88">
-        <v>0.001556074654857291</v>
+        <v>-0.04163642675963979</v>
       </c>
       <c r="G88">
-        <v>-0.0616218441189957</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.04761636078216348</v>
+      </c>
+      <c r="H88">
+        <v>-0.01363664209810521</v>
+      </c>
+      <c r="I88">
+        <v>-0.01590866694946392</v>
+      </c>
+      <c r="J88">
+        <v>-0.02047783919095957</v>
+      </c>
+      <c r="K88">
+        <v>-0.003832525226414186</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.09785224393850452</v>
+        <v>0.1708242631194089</v>
       </c>
       <c r="C89">
-        <v>0.3660122132472688</v>
+        <v>0.3716801964760486</v>
       </c>
       <c r="D89">
-        <v>-0.1109199167804635</v>
+        <v>0.01941258177013263</v>
       </c>
       <c r="E89">
-        <v>-0.01306831871852424</v>
+        <v>0.04436607055375608</v>
       </c>
       <c r="F89">
-        <v>-0.06526080311980402</v>
+        <v>0.05658711428217474</v>
       </c>
       <c r="G89">
-        <v>-0.006151536422474858</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.005089386438026371</v>
+      </c>
+      <c r="H89">
+        <v>0.03415172164700508</v>
+      </c>
+      <c r="I89">
+        <v>-0.02861502060862867</v>
+      </c>
+      <c r="J89">
+        <v>-0.01689558782778367</v>
+      </c>
+      <c r="K89">
+        <v>0.07691331831919582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.07873381403531922</v>
+        <v>0.1333037772480171</v>
       </c>
       <c r="C90">
-        <v>0.2970487781207444</v>
+        <v>0.2784370460617211</v>
       </c>
       <c r="D90">
-        <v>-0.05436583256032853</v>
+        <v>0.01410777851072853</v>
       </c>
       <c r="E90">
-        <v>-0.04211155461865695</v>
+        <v>0.01557787140958466</v>
       </c>
       <c r="F90">
-        <v>-0.0541052664776951</v>
+        <v>0.001515646411937618</v>
       </c>
       <c r="G90">
-        <v>-0.04452814117800247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0482503620095995</v>
+      </c>
+      <c r="H90">
+        <v>0.0188989279319065</v>
+      </c>
+      <c r="I90">
+        <v>-0.049086595153148</v>
+      </c>
+      <c r="J90">
+        <v>-0.04810468210804543</v>
+      </c>
+      <c r="K90">
+        <v>-0.03512551093405484</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.08559758343327055</v>
+        <v>0.08249549538007364</v>
       </c>
       <c r="C91">
-        <v>-0.02235984763848777</v>
+        <v>-0.03809249998681248</v>
       </c>
       <c r="D91">
-        <v>0.0003603112848492874</v>
+        <v>0.01895377206882352</v>
       </c>
       <c r="E91">
-        <v>0.01835411421696647</v>
+        <v>0.01502777523331596</v>
       </c>
       <c r="F91">
-        <v>0.08337415357783634</v>
+        <v>-0.004048079885388378</v>
       </c>
       <c r="G91">
-        <v>0.07312334126498833</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.007589228681943542</v>
+      </c>
+      <c r="H91">
+        <v>-0.07545900016038196</v>
+      </c>
+      <c r="I91">
+        <v>0.1064878263275081</v>
+      </c>
+      <c r="J91">
+        <v>0.04416984688074189</v>
+      </c>
+      <c r="K91">
+        <v>0.005935453892047707</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.07314939448140932</v>
+        <v>0.1452970162387371</v>
       </c>
       <c r="C92">
-        <v>0.3412504121474535</v>
+        <v>0.3304144361696123</v>
       </c>
       <c r="D92">
-        <v>-0.07333553653961092</v>
+        <v>0.001772990211580677</v>
       </c>
       <c r="E92">
-        <v>-0.02023421317168423</v>
+        <v>0.0241111008294565</v>
       </c>
       <c r="F92">
-        <v>-0.04056287991841336</v>
+        <v>0.04069002312414338</v>
       </c>
       <c r="G92">
-        <v>0.02842750607936611</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0390378930196563</v>
+      </c>
+      <c r="H92">
+        <v>0.04448002933731513</v>
+      </c>
+      <c r="I92">
+        <v>0.03369663557103679</v>
+      </c>
+      <c r="J92">
+        <v>-0.01896386649062403</v>
+      </c>
+      <c r="K92">
+        <v>0.007131123187754438</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.08970772101219679</v>
+        <v>0.1386950839045435</v>
       </c>
       <c r="C93">
-        <v>0.2950982526284536</v>
+        <v>0.3100120701016243</v>
       </c>
       <c r="D93">
-        <v>-0.05534615081027255</v>
+        <v>0.04103992239480417</v>
       </c>
       <c r="E93">
-        <v>-0.004833192598180832</v>
+        <v>0.01052252183612028</v>
       </c>
       <c r="F93">
-        <v>-0.02199190000113981</v>
+        <v>-0.02130300452272644</v>
       </c>
       <c r="G93">
-        <v>0.005153189693294631</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.02747768613561869</v>
+      </c>
+      <c r="H93">
+        <v>-0.00409634985272537</v>
+      </c>
+      <c r="I93">
+        <v>-0.02699958291676261</v>
+      </c>
+      <c r="J93">
+        <v>-0.007543627106919491</v>
+      </c>
+      <c r="K93">
+        <v>0.000803459266672902</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.09512615668399961</v>
+        <v>0.1214511324779746</v>
       </c>
       <c r="C94">
-        <v>-0.04209942329192196</v>
+        <v>-0.04985745698921014</v>
       </c>
       <c r="D94">
-        <v>0.009664495554693123</v>
+        <v>-0.02531333711048711</v>
       </c>
       <c r="E94">
-        <v>0.005305243106955941</v>
+        <v>0.02721544792556707</v>
       </c>
       <c r="F94">
-        <v>0.1308152653668064</v>
+        <v>0.002516206266546721</v>
       </c>
       <c r="G94">
-        <v>0.07051354899977658</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.02368454091529877</v>
+      </c>
+      <c r="H94">
+        <v>-0.1007912019882995</v>
+      </c>
+      <c r="I94">
+        <v>0.1249929621021281</v>
+      </c>
+      <c r="J94">
+        <v>0.009042839863844559</v>
+      </c>
+      <c r="K94">
+        <v>-0.01689353162939528</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1372234177650534</v>
+        <v>0.1199265275066064</v>
       </c>
       <c r="C95">
-        <v>-0.06609070729943116</v>
+        <v>-0.07135727607452245</v>
       </c>
       <c r="D95">
-        <v>-0.07176912185310627</v>
+        <v>-0.01670616168363931</v>
       </c>
       <c r="E95">
-        <v>-0.02671546753670584</v>
+        <v>0.07050501431150769</v>
       </c>
       <c r="F95">
-        <v>-0.05159939062934126</v>
+        <v>0.02534230599156027</v>
       </c>
       <c r="G95">
-        <v>-0.1273943983201828</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.04851275365013322</v>
+      </c>
+      <c r="H95">
+        <v>0.1323842177306645</v>
+      </c>
+      <c r="I95">
+        <v>-0.2044359559489296</v>
+      </c>
+      <c r="J95">
+        <v>-0.05375983361667571</v>
+      </c>
+      <c r="K95">
+        <v>0.1159406484160369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.006187971260710127</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.002210972498051391</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.005181905429803701</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.0006742595741840997</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.0008109330705220333</v>
       </c>
       <c r="G96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>-0.007330789743150161</v>
+      </c>
+      <c r="H96">
+        <v>0.02415195282274712</v>
+      </c>
+      <c r="I96">
+        <v>-0.006762232486217714</v>
+      </c>
+      <c r="J96">
+        <v>0.01192359944169336</v>
+      </c>
+      <c r="K96">
+        <v>-0.02055527709114932</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2083400472134392</v>
+        <v>0.1894799927575014</v>
       </c>
       <c r="C97">
-        <v>0.1501976231970382</v>
+        <v>-0.01904252109771695</v>
       </c>
       <c r="D97">
-        <v>0.8997519978159271</v>
+        <v>-0.4304752812148051</v>
       </c>
       <c r="E97">
-        <v>-0.02724484377578368</v>
+        <v>-0.8492546403612073</v>
       </c>
       <c r="F97">
-        <v>-0.07099265806542854</v>
+        <v>-0.008049777425343482</v>
       </c>
       <c r="G97">
-        <v>-0.0348767975235862</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>-0.04534222384343654</v>
+      </c>
+      <c r="H97">
+        <v>-0.02996721483617692</v>
+      </c>
+      <c r="I97">
+        <v>-0.04972089511589201</v>
+      </c>
+      <c r="J97">
+        <v>-0.06061277133644389</v>
+      </c>
+      <c r="K97">
+        <v>0.01774186539168893</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.3088283784580642</v>
+        <v>0.2658081525973903</v>
       </c>
       <c r="C98">
-        <v>-0.08582903949913316</v>
+        <v>-0.09325288756802917</v>
       </c>
       <c r="D98">
-        <v>-0.06258084544857487</v>
+        <v>0.03573272684063171</v>
       </c>
       <c r="E98">
-        <v>0.2463372818684859</v>
+        <v>0.04080830660201231</v>
       </c>
       <c r="F98">
-        <v>-0.2177640065952845</v>
+        <v>0.01920217452985628</v>
       </c>
       <c r="G98">
-        <v>0.2504958565443671</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.358050493156751</v>
+      </c>
+      <c r="H98">
+        <v>-0.09058350299281903</v>
+      </c>
+      <c r="I98">
+        <v>-0.1526124957148681</v>
+      </c>
+      <c r="J98">
+        <v>0.1522007027543435</v>
+      </c>
+      <c r="K98">
+        <v>0.6259637657115728</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.08497398324930369</v>
+        <v>0.05910666377545727</v>
       </c>
       <c r="C99">
-        <v>-0.03474738125024773</v>
+        <v>-0.02394633265883381</v>
       </c>
       <c r="D99">
-        <v>-0.005356546364923253</v>
+        <v>-0.03818698924270493</v>
       </c>
       <c r="E99">
-        <v>0.01165322911853436</v>
+        <v>0.0394873769906906</v>
       </c>
       <c r="F99">
-        <v>0.01448744725572293</v>
+        <v>-0.0009239983111124644</v>
       </c>
       <c r="G99">
-        <v>-0.01037990934062612</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.02126669151212564</v>
+      </c>
+      <c r="H99">
+        <v>0.00303463378922621</v>
+      </c>
+      <c r="I99">
+        <v>0.01868610013260616</v>
+      </c>
+      <c r="J99">
+        <v>-0.0291544425750187</v>
+      </c>
+      <c r="K99">
+        <v>-0.05591437311981313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.0158221741145287</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.01399503895709715</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.09420760390354591</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.004150324788687016</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.04932340708292376</v>
       </c>
       <c r="G100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>0.04574093372693094</v>
+      </c>
+      <c r="H100">
+        <v>-0.03518256028031957</v>
+      </c>
+      <c r="I100">
+        <v>0.04036598325353314</v>
+      </c>
+      <c r="J100">
+        <v>0.0126000630321623</v>
+      </c>
+      <c r="K100">
+        <v>0.2704280359099529</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05715435441562237</v>
+        <v>0.04139594857407071</v>
       </c>
       <c r="C101">
-        <v>-0.007487840246932498</v>
+        <v>-0.02008187694516859</v>
       </c>
       <c r="D101">
-        <v>-0.02806544928609867</v>
+        <v>-0.01240472553486654</v>
       </c>
       <c r="E101">
-        <v>-0.04335143409691288</v>
+        <v>0.03440871439581549</v>
       </c>
       <c r="F101">
-        <v>0.03499849849257596</v>
+        <v>-0.01928589561938833</v>
       </c>
       <c r="G101">
-        <v>-0.0485849539889253</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.09815751142800327</v>
+      </c>
+      <c r="H101">
+        <v>-0.0112280941290542</v>
+      </c>
+      <c r="I101">
+        <v>-0.003754666315431642</v>
+      </c>
+      <c r="J101">
+        <v>0.038312534982681</v>
+      </c>
+      <c r="K101">
+        <v>0.05269073383178418</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3046,10 +4270,22 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
